--- a/rl-starter-files/results.xlsx
+++ b/rl-starter-files/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,60 +436,65 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>env</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>FPS</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>R:μ</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>R:σ</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>R:m</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>R:M</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>F:μ</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>F:σ</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>F:m</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>F:M</t>
         </is>
@@ -498,980 +503,1102 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+          <t>BabyAI-GoToImpUnlock-v0_a2c_gpt-3.5-turbo_seed1_23-10-26-07-48-03</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BabyAI-GoToImpUnlock-v0</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>51963</v>
       </c>
-      <c r="C2" t="n">
-        <v>1921.838146641792</v>
-      </c>
       <c r="D2" t="n">
+        <v>1916.603407525247</v>
+      </c>
+      <c r="E2" t="n">
         <v>27</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1020781245827675</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.2695690681961366</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.9906250238418579</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>519.63</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>151.8757159653906</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>6</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>576</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>53420</v>
+          <t>BabyAI-GoToImpUnlock-v0_ppo_gpt-3.5-turbo_askevery10000.0_seed1_23-10-26-08-47-10</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BabyAI-GoToImpUnlock-v0</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>1982.541453028446</v>
+        <v>52711</v>
       </c>
       <c r="D3" t="n">
-        <v>26</v>
+        <v>1945.361198329914</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07531249985098838</v>
+        <v>27</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2406547259620771</v>
+        <v>0.09139062508940697</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.2384548547674736</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.9906250238418579</v>
       </c>
-      <c r="I3" t="n">
-        <v>534.2</v>
-      </c>
       <c r="J3" t="n">
-        <v>136.153810082568</v>
+        <v>527.11</v>
       </c>
       <c r="K3" t="n">
+        <v>132.0934438191389</v>
+      </c>
+      <c r="L3" t="n">
         <v>6</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>576</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>53044</v>
+          <t>BabyAI-GoToImpUnlock-v0_a2c_None_seed1_23-10-26-07-48-08</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BabyAI-GoToImpUnlock-v0</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>2006.439878687955</v>
+        <v>53420</v>
       </c>
       <c r="D4" t="n">
+        <v>2023.182833571062</v>
+      </c>
+      <c r="E4" t="n">
         <v>26</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.08718749910593032</v>
-      </c>
       <c r="F4" t="n">
-        <v>0.2330751428135081</v>
+        <v>0.07531249985098838</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.2406547259620771</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9937499761581421</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>530.4400000000001</v>
+        <v>0.9906250238418579</v>
       </c>
       <c r="J4" t="n">
-        <v>129.6225535931151</v>
+        <v>534.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>136.153810082568</v>
       </c>
       <c r="L4" t="n">
+        <v>6</v>
+      </c>
+      <c r="M4" t="n">
         <v>576</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>64512</v>
+          <t>BabyAI-GoToImpUnlock-v0_ppo_None_seed1_23-10-26-07-48-12</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BabyAI-GoToImpUnlock-v0</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>2518.455079348902</v>
+        <v>53044</v>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>1963.247363393772</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.08718749910593032</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.2330751428135081</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>576</v>
+        <v>0.9937499761581421</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>530.4400000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>576</v>
+        <v>129.6225535931151</v>
       </c>
       <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
         <v>576</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>64512</v>
+          <t>BabyAI-GoToLocalS6N3-v0_ppo_gpt-3.5-turbo_askevery10000.0_seed1_23-10-26-08-58-21</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BabyAI-GoToLocalS6N3-v0</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>2454.918063876205</v>
+        <v>882</v>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>1599.156250081052</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.7806930685102349</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.1831341968154657</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>576</v>
+        <v>0.9750000238418579</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>8.732673267326733</v>
       </c>
       <c r="K6" t="n">
-        <v>576</v>
+        <v>7.165499145360124</v>
       </c>
       <c r="L6" t="n">
-        <v>576</v>
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>64512</v>
+          <t>BabyAI-GoToLocal-v0_a2c_gpt-3.5-turbo_askevery10000.0_seed1_23-10-26-09-02-28</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BabyAI-GoToLocal-v0</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>2435.658419225711</v>
+        <v>4507</v>
       </c>
       <c r="D7" t="n">
-        <v>26</v>
+        <v>1982.309346842537</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.3132031267881393</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.3794352557504075</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>576</v>
+        <v>0.9859374761581421</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.07</v>
       </c>
       <c r="K7" t="n">
-        <v>576</v>
+        <v>23.93209351477634</v>
       </c>
       <c r="L7" t="n">
-        <v>576</v>
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>64512</v>
+          <t>BabyAI-GoToLocal-v0_a2c_None__seed1_23-10-26-08-50-57</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BabyAI-GoToLocal-v0</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>2360.458405568409</v>
+        <v>4073</v>
       </c>
       <c r="D8" t="n">
-        <v>27</v>
+        <v>1787.232575727538</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.3812343743443489</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.386965577007601</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>576</v>
+        <v>0.9859374761581421</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>40.73</v>
       </c>
       <c r="K8" t="n">
-        <v>576</v>
+        <v>24.33961996416542</v>
       </c>
       <c r="L8" t="n">
-        <v>576</v>
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>11298</v>
+          <t>BabyAI-GoToObjS4-v0_a2c_gpt-3.5-turbo_askevery10000.0_seed1_23-10-26-08-36-18</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BabyAI-GoToObjS4-v0</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>2228.945557745956</v>
+        <v>295</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>1351.823156855097</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.8373161729644326</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.06771420626066962</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="I9" t="n">
-        <v>112.98</v>
+        <v>0.887499988079071</v>
       </c>
       <c r="J9" t="n">
-        <v>116.3749955961331</v>
+        <v>2.892156862745098</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>1.203808195466583</v>
       </c>
       <c r="L9" t="n">
-        <v>324</v>
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10709</v>
+          <t>BabyAI-GoToObjS4-v0_a2c_None__seed1_23-10-26-08-24-45</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BabyAI-GoToObjS4-v0</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>2263.733532131379</v>
+        <v>294</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>1493.918776879929</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.8468749964678729</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.04950930847091035</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.606249988079071</v>
       </c>
       <c r="I10" t="n">
-        <v>107.09</v>
+        <v>0.887499988079071</v>
       </c>
       <c r="J10" t="n">
-        <v>102.724495131395</v>
+        <v>2.722222222222222</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0.880165528764159</v>
       </c>
       <c r="L10" t="n">
-        <v>324</v>
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>11916</v>
+          <t>BabyAI-GoToObjS4-v0_a2c_None__seed1_23-10-26-08-36-53</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BabyAI-GoToObjS4-v0</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>2163.535837648992</v>
+        <v>287</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>1551.281858705303</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.8447716316351523</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.05375831533024328</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="I11" t="n">
-        <v>119.16</v>
+        <v>0.887499988079071</v>
       </c>
       <c r="J11" t="n">
-        <v>108.7956543249775</v>
+        <v>2.759615384615385</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.9557034492143662</v>
       </c>
       <c r="L11" t="n">
-        <v>324</v>
+        <v>2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1912</v>
+          <t>BabyAI-GoToObjS6-v0_a2c_gpt-3.5-turbo_askevery10000.0_seed1_23-10-26-08-48-28</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BabyAI-GoToObjS6-v0</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>1604.283027247274</v>
+        <v>274</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>1299.24932366052</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7241250002384185</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2710154613195896</v>
+        <v>0.8474009869122269</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.04570226002640643</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9859374761581421</v>
+        <v>0.6625000238418579</v>
       </c>
       <c r="I12" t="n">
-        <v>19.12</v>
+        <v>0.887499988079071</v>
       </c>
       <c r="J12" t="n">
-        <v>17.98459340657998</v>
+        <v>2.712871287128713</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0.8124846827298471</v>
       </c>
       <c r="L12" t="n">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1256</v>
+          <t>BabyAI-GoToObjS6-v0_a2c_None__seed1_23-10-26-08-38-41</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BabyAI-GoToObjS6-v0</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>1433.128936683619</v>
+        <v>304</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1671.88320785048</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8233750009536743</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1650690729863008</v>
+        <v>0.8289999958872795</v>
       </c>
       <c r="G13" t="n">
-        <v>0.268750011920929</v>
+        <v>0.07750261699715018</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9859374761581421</v>
+        <v>0.4937500059604645</v>
       </c>
       <c r="I13" t="n">
-        <v>12.56</v>
+        <v>0.887499988079071</v>
       </c>
       <c r="J13" t="n">
-        <v>11.73824518401281</v>
+        <v>3.04</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>1.377824371971987</v>
       </c>
       <c r="L13" t="n">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1834</v>
+          <t>BabyAI-GoToObjS6-v0_a2c_None__seed1_23-10-26-08-49-00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BabyAI-GoToObjS6-v0</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>1622.762509326975</v>
+        <v>289</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>1225.111864187511</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7340937528014183</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2822666848052783</v>
+        <v>0.8451785683631897</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.05745894393243384</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9859374761581421</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="I14" t="n">
-        <v>18.34</v>
+        <v>0.887499988079071</v>
       </c>
       <c r="J14" t="n">
-        <v>18.63395824831643</v>
+        <v>2.752380952380952</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>1.021492394498432</v>
       </c>
       <c r="L14" t="n">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1198</v>
+          <t>BabyAI-GoToObj-v0_a2c_gpt-3.5-turbo_askevery10000.0_seed1_23-10-26-08-24-49</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BabyAI-GoToObj-v0</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>1381.190397811547</v>
+        <v>1171</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1603.769605853535</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8295312520861625</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1706190620811469</v>
+        <v>0.8343281272053719</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.1423464857088953</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9859374761581421</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>11.98</v>
+        <v>0.971875011920929</v>
       </c>
       <c r="J15" t="n">
-        <v>11.4638387985875</v>
+        <v>11.71</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>9.722443108601871</v>
       </c>
       <c r="L15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>13118</v>
+          <t>BabyAI-GoToObj-v0_a2c_None__seed1_23-10-26-08-13-14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BabyAI-GoToObj-v0</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>2094.193899233432</v>
+        <v>914</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>1344.092067088309</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01449394934248216</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08500846882580246</v>
+        <v>0.8714687496423721</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.08146594742302132</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6138888597488403</v>
+        <v>0.5921875238418579</v>
       </c>
       <c r="I16" t="n">
-        <v>129.8811881188119</v>
+        <v>0.9859374761581421</v>
       </c>
       <c r="J16" t="n">
-        <v>113.0254757166039</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>5.793133866915213</v>
       </c>
       <c r="L16" t="n">
-        <v>324</v>
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>5256</v>
+          <t>BabyAI-GoToObj-v0_a2c_None__seed1_23-10-26-08-24-58</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BabyAI-GoToObj-v0</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>2177.44034867078</v>
+        <v>1182</v>
       </c>
       <c r="D17" t="n">
+        <v>1613.052129352165</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.8337812513113022</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1381762107970732</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.296875</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.971875011920929</v>
+      </c>
+      <c r="J17" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="K17" t="n">
+        <v>9.825863829709833</v>
+      </c>
+      <c r="L17" t="n">
         <v>2</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>52.56</v>
-      </c>
-      <c r="J17" t="n">
-        <v>49.62344607138847</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>251</v>
+      <c r="M17" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3645</v>
+          <t>BabyAI-GoToObj-v0_ppo_gpt-3.5-turbo_askevery10000.0_seed1_23-10-26-08-30-50</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BabyAI-GoToObj-v0</t>
+        </is>
       </c>
       <c r="C18" t="n">
-        <v>2297.140276184445</v>
+        <v>912</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>1530.809539893357</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.8742647059992248</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.07903172189289323</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.606249988079071</v>
       </c>
       <c r="I18" t="n">
-        <v>36.45</v>
+        <v>0.971875011920929</v>
       </c>
       <c r="J18" t="n">
-        <v>40.09647740138777</v>
+        <v>8.941176470588236</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>5.620033370586441</v>
       </c>
       <c r="L18" t="n">
-        <v>193</v>
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>5338</v>
+          <t>BabyAI-GoToRedBallGrey-v0_a2c_gpt-3.5-turbo_askevery10000.0_seed1_23-10-26-08-01-22</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BabyAI-GoToRedBallGrey-v0</t>
+        </is>
       </c>
       <c r="C19" t="n">
-        <v>1878.446210868247</v>
+        <v>1834</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>1545.675409418381</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.7340937528014183</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.2822666848052783</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>53.38</v>
+        <v>0.9859374761581421</v>
       </c>
       <c r="J19" t="n">
-        <v>49.08192742751654</v>
+        <v>18.34</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>18.63395824831643</v>
       </c>
       <c r="L19" t="n">
-        <v>251</v>
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1831</v>
+          <t>BabyAI-GoToRedBallGrey-v0_a2c_None_askevery2000_seed1_23-10-26-08-01-11</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BabyAI-GoToRedBallGrey-v0</t>
+        </is>
       </c>
       <c r="C20" t="n">
-        <v>1450.824940274479</v>
+        <v>1912</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>1472.765891005349</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7355156254768371</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2797104430742354</v>
+        <v>0.7241250002384185</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.2710154613195896</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0.9859374761581421</v>
       </c>
-      <c r="I20" t="n">
-        <v>18.31</v>
-      </c>
       <c r="J20" t="n">
-        <v>18.6240140678641</v>
+        <v>19.12</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>17.98459340657998</v>
       </c>
       <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2149</v>
+          <t>BabyAI-GoToRedBallGrey-v0_a2c_None_askevery2000_seed1_23-10-26-08-01-17</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>BabyAI-GoToRedBallGrey-v0</t>
+        </is>
       </c>
       <c r="C21" t="n">
-        <v>1636.273401360421</v>
+        <v>1256</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>1521.04346600867</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6857968716323376</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3061107041810811</v>
+        <v>0.8233750009536743</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.1650690729863008</v>
       </c>
       <c r="H21" t="n">
+        <v>0.268750011920929</v>
+      </c>
+      <c r="I21" t="n">
         <v>0.9859374761581421</v>
       </c>
-      <c r="I21" t="n">
-        <v>21.49</v>
-      </c>
       <c r="J21" t="n">
-        <v>19.89848989245164</v>
+        <v>12.56</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>11.73824518401281</v>
       </c>
       <c r="L21" t="n">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>914</v>
+          <t>BabyAI-GoToRedBallGrey-v0_ppo_gpt-3.5-turbo_askevery10000.0_seed1_23-10-26-08-01-27</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>BabyAI-GoToRedBallGrey-v0</t>
+        </is>
       </c>
       <c r="C22" t="n">
-        <v>1802.890317726067</v>
+        <v>1198</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1241.544751095635</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8714687496423721</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08146594742302132</v>
+        <v>0.8295312520861625</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5921875238418579</v>
+        <v>0.1706190620811469</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0.9859374761581421</v>
       </c>
-      <c r="I22" t="n">
-        <v>9.140000000000001</v>
-      </c>
       <c r="J22" t="n">
-        <v>5.793133866915213</v>
+        <v>11.98</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>11.4638387985875</v>
       </c>
       <c r="L22" t="n">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1330</v>
+          <t>BabyAI-GoToRedBall-v0_a2c_gpt-3.5-turbo_askevery10000.0_seed1_23-10-26-08-13-12</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BabyAI-GoToRedBall-v0</t>
+        </is>
       </c>
       <c r="C23" t="n">
-        <v>1457.906179452561</v>
+        <v>2149</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1638.738683305265</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8119687485694885</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1580397842208452</v>
+        <v>0.6857968716323376</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.3061107041810811</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0.9859374761581421</v>
       </c>
-      <c r="I23" t="n">
-        <v>13.3</v>
-      </c>
       <c r="J23" t="n">
-        <v>10.88990358084038</v>
+        <v>21.49</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>19.89848989245164</v>
       </c>
       <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>5818</v>
+          <t>BabyAI-GoToRedBall-v0_a2c_None__seed1_23-10-26-08-13-10</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BabyAI-GoToRedBall-v0</t>
+        </is>
       </c>
       <c r="C24" t="n">
-        <v>2096.033731058576</v>
+        <v>1831</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>1577.277858321303</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.7355156254768371</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.2797104430742354</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>58.18</v>
+        <v>0.9859374761581421</v>
       </c>
       <c r="J24" t="n">
-        <v>60.03721845655409</v>
+        <v>18.31</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>18.6240140678641</v>
       </c>
       <c r="L24" t="n">
-        <v>258</v>
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>3266</v>
+          <t>BabyAI-GoToRedBall-v0_ppo_gpt-3.5-turbo_askevery10000.0_seed1_23-10-26-08-16-18</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BabyAI-GoToRedBall-v0</t>
+        </is>
       </c>
       <c r="C25" t="n">
-        <v>1717.162068191353</v>
+        <v>1330</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>1470.419823273093</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.8119687485694885</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.1580397842208452</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>32.33663366336634</v>
+        <v>0.9859374761581421</v>
       </c>
       <c r="J25" t="n">
-        <v>33.15856809593454</v>
+        <v>13.3</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>10.88990358084038</v>
       </c>
       <c r="L25" t="n">
-        <v>128</v>
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>3620</v>
+          <t>MiniGrid-BlockedUnlockPickup-v0_a2c_gpt-3.5-turbo_seed1_23-10-26-07-55-31</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MiniGrid-BlockedUnlockPickup-v0</t>
+        </is>
       </c>
       <c r="C26" t="n">
-        <v>1928.603752801442</v>
+        <v>64512</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>2379.61817742945</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1483,35 +1610,40 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>36.2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>39.41826987578222</v>
+        <v>576</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>208</v>
+        <v>576</v>
+      </c>
+      <c r="M26" t="n">
+        <v>576</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>3995</v>
+          <t>MiniGrid-BlockedUnlockPickup-v0_a2c_None_seed1_23-10-26-07-54-52</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MiniGrid-BlockedUnlockPickup-v0</t>
+        </is>
       </c>
       <c r="C27" t="n">
-        <v>2268.980870614594</v>
+        <v>64512</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>2425.998238592712</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1523,715 +1655,805 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>39.95</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>42.18776481398369</v>
+        <v>576</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>208</v>
+        <v>576</v>
+      </c>
+      <c r="M27" t="n">
+        <v>576</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>294</v>
+          <t>MiniGrid-BlockedUnlockPickup-v0_a2c_None_seed1_23-10-26-07-54-56</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MiniGrid-BlockedUnlockPickup-v0</t>
+        </is>
       </c>
       <c r="C28" t="n">
-        <v>1347.900446959006</v>
+        <v>64512</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>2502.851100560344</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8468749964678729</v>
+        <v>25</v>
       </c>
       <c r="F28" t="n">
-        <v>0.04950930847091035</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.606249988079071</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.887499988079071</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>2.722222222222222</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.880165528764159</v>
+        <v>576</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>7</v>
+        <v>576</v>
+      </c>
+      <c r="M28" t="n">
+        <v>576</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1171</v>
+          <t>MiniGrid-BlockedUnlockPickup-v0_ppo_gpt-3.5-turbo_seed1_23-10-26-07-56-24</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MiniGrid-BlockedUnlockPickup-v0</t>
+        </is>
       </c>
       <c r="C29" t="n">
-        <v>1726.504265527459</v>
+        <v>64512</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>2333.582983074739</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8343281272053719</v>
+        <v>27</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1423464857088953</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.971875011920929</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>11.71</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>9.722443108601871</v>
+        <v>576</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>64</v>
+        <v>576</v>
+      </c>
+      <c r="M29" t="n">
+        <v>576</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1182</v>
+          <t>MiniGrid-DistShift1-v0_a2c_gpt-3.5-turbo_askevery10000.0_seed1_23-10-26-08-49-20</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MiniGrid-DistShift1-v0</t>
+        </is>
       </c>
       <c r="C30" t="n">
-        <v>1401.4044745059</v>
+        <v>14068</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>2439.846958532979</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8337812513113022</v>
+        <v>5</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1381762107970732</v>
+        <v>0.238892856836319</v>
       </c>
       <c r="G30" t="n">
-        <v>0.296875</v>
+        <v>0.2611248705558062</v>
       </c>
       <c r="H30" t="n">
-        <v>0.971875011920929</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>11.82</v>
+        <v>0.7535714507102966</v>
       </c>
       <c r="J30" t="n">
-        <v>9.825863829709833</v>
+        <v>140.68</v>
       </c>
       <c r="K30" t="n">
+        <v>77.12053941720065</v>
+      </c>
+      <c r="L30" t="n">
         <v>2</v>
       </c>
-      <c r="L30" t="n">
-        <v>50</v>
+      <c r="M30" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>29516</v>
+          <t>MiniGrid-DistShift1-v0_a2c_None__seed1_23-10-26-08-38-56</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MiniGrid-DistShift1-v0</t>
+        </is>
       </c>
       <c r="C31" t="n">
-        <v>2145.130099281277</v>
+        <v>2328</v>
       </c>
       <c r="D31" t="n">
-        <v>13</v>
+        <v>2431.952338979049</v>
       </c>
       <c r="E31" t="n">
-        <v>0.103111112266779</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2040274610581403</v>
+        <v>0.916857146024704</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.01793610842473225</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7333333492279053</v>
+        <v>0.8571428656578064</v>
       </c>
       <c r="I31" t="n">
-        <v>295.16</v>
+        <v>0.9464285969734192</v>
       </c>
       <c r="J31" t="n">
-        <v>59.7199665103724</v>
+        <v>23.28</v>
       </c>
       <c r="K31" t="n">
-        <v>96</v>
+        <v>5.022111109881978</v>
       </c>
       <c r="L31" t="n">
-        <v>324</v>
+        <v>15</v>
+      </c>
+      <c r="M31" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>3266</v>
+          <t>MiniGrid-DistShift1-v0_a2c_None__seed1_23-10-26-08-47-35</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MiniGrid-DistShift1-v0</t>
+        </is>
       </c>
       <c r="C32" t="n">
-        <v>2044.566696119403</v>
+        <v>2437</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>2020.620481065527</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.9129642844200134</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.02040817308156078</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="I32" t="n">
-        <v>32.33663366336634</v>
+        <v>0.9428571462631226</v>
       </c>
       <c r="J32" t="n">
-        <v>33.15856809593454</v>
+        <v>24.37</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>5.71428910714185</v>
       </c>
       <c r="L32" t="n">
-        <v>128</v>
+        <v>16</v>
+      </c>
+      <c r="M32" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>2923</v>
+          <t>MiniGrid-DistShift2-v0_a2c_gpt-3.5-turbo_askevery10000.0_seed1_23-10-26-08-58-22</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MiniGrid-DistShift2-v0</t>
+        </is>
       </c>
       <c r="C33" t="n">
-        <v>1913.55572270187</v>
+        <v>23159</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>2193.892682574711</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.06764285743236542</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.1547923403823464</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>29.23</v>
+        <v>0.7107142806053162</v>
       </c>
       <c r="J33" t="n">
-        <v>29.97494120094316</v>
+        <v>231.59</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>43.07600143931653</v>
       </c>
       <c r="L33" t="n">
-        <v>127</v>
+        <v>62</v>
+      </c>
+      <c r="M33" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>912</v>
+          <t>MiniGrid-DistShift2-v0_a2c_None__seed1_23-10-26-08-46-35</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MiniGrid-DistShift2-v0</t>
+        </is>
       </c>
       <c r="C34" t="n">
-        <v>1981.761133143889</v>
+        <v>18452</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>2512.070584001178</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8742647059992248</v>
+        <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07903172189289323</v>
+        <v>0.1167500020563602</v>
       </c>
       <c r="G34" t="n">
-        <v>0.606249988079071</v>
+        <v>0.2472041124694188</v>
       </c>
       <c r="H34" t="n">
-        <v>0.971875011920929</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>8.941176470588236</v>
+        <v>0.8285714387893677</v>
       </c>
       <c r="J34" t="n">
-        <v>5.620033370586441</v>
+        <v>184.52</v>
       </c>
       <c r="K34" t="n">
+        <v>82.98475522648722</v>
+      </c>
+      <c r="L34" t="n">
         <v>2</v>
       </c>
-      <c r="L34" t="n">
-        <v>28</v>
+      <c r="M34" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>295</v>
+          <t>MiniGrid-DistShift2-v0_a2c_None__seed1_23-10-26-08-56-21</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MiniGrid-DistShift2-v0</t>
+        </is>
       </c>
       <c r="C35" t="n">
-        <v>1344.094551142783</v>
+        <v>19365</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2317.955285438924</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8373161729644326</v>
+        <v>8</v>
       </c>
       <c r="F35" t="n">
-        <v>0.06771420626066962</v>
+        <v>0.0494642861187458</v>
       </c>
       <c r="G35" t="n">
-        <v>0.550000011920929</v>
+        <v>0.1529942450095479</v>
       </c>
       <c r="H35" t="n">
-        <v>0.887499988079071</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.892156862745098</v>
+        <v>0.8178571462631226</v>
       </c>
       <c r="J35" t="n">
-        <v>1.203808195466583</v>
+        <v>193.65</v>
       </c>
       <c r="K35" t="n">
-        <v>2</v>
+        <v>78.14990403065124</v>
       </c>
       <c r="L35" t="n">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="M35" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>287</v>
+          <t>MiniGrid-DoorKey-5x5-v0_a2c_gpt-3.5-turbo_askevery10000.0_seed1_23-10-26-09-06-24</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MiniGrid-DoorKey-5x5-v0</t>
+        </is>
       </c>
       <c r="C36" t="n">
-        <v>1301.249668138245</v>
+        <v>1893</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>2194.107682869539</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8447716316351523</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.05375831533024328</v>
+        <v>0.9325267247634359</v>
       </c>
       <c r="G36" t="n">
-        <v>0.550000011920929</v>
+        <v>0.02401713785316768</v>
       </c>
       <c r="H36" t="n">
-        <v>0.887499988079071</v>
+        <v>0.8560000061988831</v>
       </c>
       <c r="I36" t="n">
-        <v>2.759615384615385</v>
+        <v>0.9675999879837036</v>
       </c>
       <c r="J36" t="n">
-        <v>0.9557034492143662</v>
+        <v>18.74257425742574</v>
       </c>
       <c r="K36" t="n">
-        <v>2</v>
+        <v>6.671430836994615</v>
       </c>
       <c r="L36" t="n">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="M36" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>304</v>
+          <t>MiniGrid-DoorKey-5x5-v0_a2c_None__seed1_23-10-26-08-57-05</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MiniGrid-DoorKey-5x5-v0</t>
+        </is>
       </c>
       <c r="C37" t="n">
-        <v>1376.444964047028</v>
+        <v>1836</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>2248.990722201065</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8289999958872795</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07750261699715018</v>
+        <v>0.9339039897918702</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4937500059604645</v>
+        <v>0.02289621453523809</v>
       </c>
       <c r="H37" t="n">
-        <v>0.887499988079071</v>
+        <v>0.8560000061988831</v>
       </c>
       <c r="I37" t="n">
-        <v>3.04</v>
+        <v>0.9747999906539917</v>
       </c>
       <c r="J37" t="n">
-        <v>1.377824371971987</v>
+        <v>18.36</v>
       </c>
       <c r="K37" t="n">
-        <v>2</v>
+        <v>6.360062892770793</v>
       </c>
       <c r="L37" t="n">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="M37" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>2328</v>
+          <t>MiniGrid-Dynamic-Obstacles-16x16-v0_a2c_None__seed1_23-10-26-08-59-52</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MiniGrid-Dynamic-Obstacles-16x16-v0</t>
+        </is>
       </c>
       <c r="C38" t="n">
-        <v>2440.61327948374</v>
+        <v>114155</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>2095.42060491938</v>
       </c>
       <c r="E38" t="n">
-        <v>0.916857146024704</v>
+        <v>54</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01793610842473225</v>
+        <v>-0.008928571428571428</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8571428656578064</v>
+        <v>0.0940683370790423</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9464285969734192</v>
+        <v>-1</v>
       </c>
       <c r="I38" t="n">
-        <v>23.28</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>5.022111109881978</v>
+        <v>1019.241071428571</v>
       </c>
       <c r="K38" t="n">
-        <v>15</v>
+        <v>50.13842366312959</v>
       </c>
       <c r="L38" t="n">
-        <v>40</v>
+        <v>491</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1024</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>29994</v>
+          <t>MiniGrid-LavaCrossingS11N5-v0_a2c_gpt-3.5-turbo_askevery10000.0_seed1_23-10-26-08-30-49</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MiniGrid-LavaCrossingS11N5-v0</t>
+        </is>
       </c>
       <c r="C39" t="n">
-        <v>2390.96559238777</v>
+        <v>2923</v>
       </c>
       <c r="D39" t="n">
-        <v>12</v>
+        <v>2014.179253475788</v>
       </c>
       <c r="E39" t="n">
-        <v>0.09686468644897536</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2157517356917882</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8833333253860474</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>296.970297029703</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>65.49574174738756</v>
+        <v>29.23</v>
       </c>
       <c r="K39" t="n">
-        <v>42</v>
+        <v>29.97494120094316</v>
       </c>
       <c r="L39" t="n">
-        <v>324</v>
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>30735</v>
+          <t>MiniGrid-LavaCrossingS11N5-v0_a2c_None__seed1_23-10-26-08-19-05</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MiniGrid-LavaCrossingS11N5-v0</t>
+        </is>
       </c>
       <c r="C40" t="n">
-        <v>2089.017643288969</v>
+        <v>3266</v>
       </c>
       <c r="D40" t="n">
-        <v>14</v>
+        <v>2001.189568147265</v>
       </c>
       <c r="E40" t="n">
-        <v>0.05925000034272671</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1738787081323852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8305555582046509</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>307.35</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>52.23760618558242</v>
+        <v>32.33663366336634</v>
       </c>
       <c r="K40" t="n">
-        <v>61</v>
+        <v>33.15856809593454</v>
       </c>
       <c r="L40" t="n">
-        <v>324</v>
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>18452</v>
+          <t>MiniGrid-LavaCrossingS11N5-v0_a2c_None__seed1_23-10-26-08-29-14</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MiniGrid-LavaCrossingS11N5-v0</t>
+        </is>
       </c>
       <c r="C41" t="n">
-        <v>2307.546820810627</v>
+        <v>3266</v>
       </c>
       <c r="D41" t="n">
-        <v>7</v>
+        <v>1846.55085099666</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1167500020563602</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2472041124694188</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8285714387893677</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>184.52</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>82.98475522648722</v>
+        <v>32.33663366336634</v>
       </c>
       <c r="K41" t="n">
-        <v>2</v>
+        <v>33.15856809593454</v>
       </c>
       <c r="L41" t="n">
-        <v>252</v>
+        <v>1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>52711</v>
+          <t>MiniGrid-LavaCrossingS11N5-v0_ppo_gpt-3.5-turbo_askevery10000.0_seed1_23-10-26-08-48-40</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MiniGrid-LavaCrossingS11N5-v0</t>
+        </is>
       </c>
       <c r="C42" t="n">
-        <v>1890.116813594467</v>
+        <v>3428</v>
       </c>
       <c r="D42" t="n">
-        <v>27</v>
+        <v>1632.712461263307</v>
       </c>
       <c r="E42" t="n">
-        <v>0.09139062508940697</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2384548547674736</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9906250238418579</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>527.11</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>132.0934438191389</v>
+        <v>34.28</v>
       </c>
       <c r="K42" t="n">
-        <v>6</v>
+        <v>39.80353753122956</v>
       </c>
       <c r="L42" t="n">
-        <v>576</v>
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>2437</v>
+          <t>MiniGrid-LavaCrossingS9N1-v0_a2c_gpt-3.5-turbo_askevery10000.0_seed1_23-10-26-08-01-05</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MiniGrid-LavaCrossingS9N1-v0</t>
+        </is>
       </c>
       <c r="C43" t="n">
-        <v>2588.430081495576</v>
+        <v>11916</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>2139.847213535012</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9129642844200134</v>
+        <v>5</v>
       </c>
       <c r="F43" t="n">
-        <v>0.02040817308156078</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8500000238418579</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9428571462631226</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.37</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.71428910714185</v>
+        <v>119.16</v>
       </c>
       <c r="K43" t="n">
-        <v>16</v>
+        <v>108.7956543249775</v>
       </c>
       <c r="L43" t="n">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="M43" t="n">
+        <v>324</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>274</v>
+          <t>MiniGrid-LavaCrossingS9N1-v0_a2c_None_askevery2000_seed1_23-10-26-08-00-15</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MiniGrid-LavaCrossingS9N1-v0</t>
+        </is>
       </c>
       <c r="C44" t="n">
-        <v>1514.169219620812</v>
+        <v>11298</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>2228.222902948318</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8474009869122269</v>
+        <v>5</v>
       </c>
       <c r="F44" t="n">
-        <v>0.04570226002640643</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6625000238418579</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.887499988079071</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>2.712871287128713</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.8124846827298471</v>
+        <v>112.98</v>
       </c>
       <c r="K44" t="n">
-        <v>2</v>
+        <v>116.3749955961331</v>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>324</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>3428</v>
+          <t>MiniGrid-LavaCrossingS9N1-v0_a2c_None_askevery2000_seed1_23-10-26-08-00-20</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MiniGrid-LavaCrossingS9N1-v0</t>
+        </is>
       </c>
       <c r="C45" t="n">
-        <v>1844.848278370747</v>
+        <v>10709</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>2224.619211677883</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -2243,416 +2465,469 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.28</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>39.80353753122956</v>
+        <v>107.09</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>102.724495131395</v>
       </c>
       <c r="L45" t="n">
-        <v>220</v>
+        <v>1</v>
+      </c>
+      <c r="M45" t="n">
+        <v>324</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>289</v>
+          <t>MiniGrid-LavaCrossingS9N1-v0_ppo_gpt-3.5-turbo_askevery10000.0_seed1_23-10-26-08-05-41</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MiniGrid-LavaCrossingS9N1-v0</t>
+        </is>
       </c>
       <c r="C46" t="n">
-        <v>1848.982130300086</v>
+        <v>13118</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>2172.632770320336</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8451785683631897</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
-        <v>0.05745894393243384</v>
+        <v>0.01449394934248216</v>
       </c>
       <c r="G46" t="n">
-        <v>0.550000011920929</v>
+        <v>0.08500846882580246</v>
       </c>
       <c r="H46" t="n">
-        <v>0.887499988079071</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.752380952380952</v>
+        <v>0.6138888597488403</v>
       </c>
       <c r="J46" t="n">
-        <v>1.021492394498432</v>
+        <v>129.8811881188119</v>
       </c>
       <c r="K46" t="n">
-        <v>2</v>
+        <v>113.0254757166039</v>
       </c>
       <c r="L46" t="n">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>324</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>14068</v>
+          <t>MiniGrid-LavaCrossingS9N2-v0_a2c_gpt-3.5-turbo_askevery10000.0_seed1_23-10-26-08-10-32</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MiniGrid-LavaCrossingS9N2-v0</t>
+        </is>
       </c>
       <c r="C47" t="n">
-        <v>2093.624329321706</v>
+        <v>5338</v>
       </c>
       <c r="D47" t="n">
-        <v>6</v>
+        <v>1832.708595319541</v>
       </c>
       <c r="E47" t="n">
-        <v>0.238892856836319</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2611248705558062</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.7535714507102966</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>140.68</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>77.12053941720065</v>
+        <v>53.38</v>
       </c>
       <c r="K47" t="n">
-        <v>2</v>
+        <v>49.08192742751654</v>
       </c>
       <c r="L47" t="n">
-        <v>252</v>
+        <v>1</v>
+      </c>
+      <c r="M47" t="n">
+        <v>251</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>4073</v>
+          <t>MiniGrid-LavaCrossingS9N2-v0_a2c_None__seed1_23-10-26-08-09-16</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MiniGrid-LavaCrossingS9N2-v0</t>
+        </is>
       </c>
       <c r="C48" t="n">
-        <v>1758.498371654037</v>
+        <v>5256</v>
       </c>
       <c r="D48" t="n">
+        <v>2188.325353311826</v>
+      </c>
+      <c r="E48" t="n">
         <v>2</v>
       </c>
-      <c r="E48" t="n">
-        <v>0.3812343743443489</v>
-      </c>
       <c r="F48" t="n">
-        <v>0.386965577007601</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9859374761581421</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>40.73</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>24.33961996416542</v>
+        <v>52.56</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>49.62344607138847</v>
       </c>
       <c r="L48" t="n">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="M48" t="n">
+        <v>251</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>19365</v>
+          <t>MiniGrid-LavaCrossingS9N2-v0_ppo_gpt-3.5-turbo_askevery10000.0_seed1_23-10-26-08-18-53</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MiniGrid-LavaCrossingS9N2-v0</t>
+        </is>
       </c>
       <c r="C49" t="n">
-        <v>2086.614301460078</v>
+        <v>5818</v>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>2154.35725776563</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0494642861187458</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1529942450095479</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8178571462631226</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>193.65</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>78.14990403065124</v>
+        <v>58.18</v>
       </c>
       <c r="K49" t="n">
-        <v>14</v>
+        <v>60.03721845655409</v>
       </c>
       <c r="L49" t="n">
-        <v>252</v>
+        <v>1</v>
+      </c>
+      <c r="M49" t="n">
+        <v>258</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1836</v>
+          <t>MiniGrid-LavaCrossingS9N3-v0_a2c_gpt-3.5-turbo_askevery10000.0_seed1_23-10-26-08-20-40</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MiniGrid-LavaCrossingS9N3-v0</t>
+        </is>
       </c>
       <c r="C50" t="n">
-        <v>1962.023008490155</v>
+        <v>3995</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>2316.224194955886</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9339039897918702</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.02289621453523809</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.8560000061988831</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9747999906539917</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>18.36</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>6.360062892770793</v>
+        <v>39.95</v>
       </c>
       <c r="K50" t="n">
-        <v>7</v>
+        <v>42.18776481398369</v>
       </c>
       <c r="L50" t="n">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="M50" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>882</v>
+          <t>MiniGrid-LavaCrossingS9N3-v0_a2c_None__seed1_23-10-26-08-09-19</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MiniGrid-LavaCrossingS9N3-v0</t>
+        </is>
       </c>
       <c r="C51" t="n">
-        <v>1781.444488533268</v>
+        <v>3645</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>2112.544888807085</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7806930685102349</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1831341968154657</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9750000238418579</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>8.732673267326733</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>7.165499145360124</v>
+        <v>36.45</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>40.09647740138777</v>
       </c>
       <c r="L51" t="n">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>193</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>23159</v>
+          <t>MiniGrid-LavaCrossingS9N3-v0_a2c_None__seed1_23-10-26-08-19-17</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MiniGrid-LavaCrossingS9N3-v0</t>
+        </is>
       </c>
       <c r="C52" t="n">
-        <v>2209.391602450613</v>
+        <v>3620</v>
       </c>
       <c r="D52" t="n">
-        <v>10</v>
+        <v>2028.044696274424</v>
       </c>
       <c r="E52" t="n">
-        <v>0.06764285743236542</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1547923403823464</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.7107142806053162</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>231.59</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>43.07600143931653</v>
+        <v>36.2</v>
       </c>
       <c r="K52" t="n">
-        <v>62</v>
+        <v>39.41826987578222</v>
       </c>
       <c r="L52" t="n">
-        <v>252</v>
+        <v>1</v>
+      </c>
+      <c r="M52" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>114155</v>
+          <t>MiniGrid-SimpleCrossingS9N1-v0_a2c_gpt-3.5-turbo_askevery10000.0_seed1_23-10-26-08-41-00</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MiniGrid-SimpleCrossingS9N1-v0</t>
+        </is>
       </c>
       <c r="C53" t="n">
-        <v>2052.569614395798</v>
+        <v>30735</v>
       </c>
       <c r="D53" t="n">
-        <v>55</v>
+        <v>2234.285439748824</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.008928571428571428</v>
+        <v>13</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0940683370790423</v>
+        <v>0.05925000034272671</v>
       </c>
       <c r="G53" t="n">
-        <v>-1</v>
+        <v>0.1738787081323852</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1019.241071428571</v>
+        <v>0.8305555582046509</v>
       </c>
       <c r="J53" t="n">
-        <v>50.13842366312959</v>
+        <v>307.35</v>
       </c>
       <c r="K53" t="n">
-        <v>491</v>
+        <v>52.23760618558242</v>
       </c>
       <c r="L53" t="n">
-        <v>1024</v>
+        <v>61</v>
+      </c>
+      <c r="M53" t="n">
+        <v>324</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>4507</v>
+          <t>MiniGrid-SimpleCrossingS9N1-v0_a2c_None__seed1_23-10-26-08-29-13</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MiniGrid-SimpleCrossingS9N1-v0</t>
+        </is>
       </c>
       <c r="C54" t="n">
-        <v>1920.333471556531</v>
+        <v>29516</v>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>2068.665689886019</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3132031267881393</v>
+        <v>14</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3794352557504075</v>
+        <v>0.103111112266779</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>0.2040274610581403</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9859374761581421</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>45.07</v>
+        <v>0.7333333492279053</v>
       </c>
       <c r="J54" t="n">
-        <v>23.93209351477634</v>
+        <v>295.16</v>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>59.7199665103724</v>
       </c>
       <c r="L54" t="n">
-        <v>64</v>
+        <v>96</v>
+      </c>
+      <c r="M54" t="n">
+        <v>324</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>&lt;ParallelEnv instance&gt;</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>1893</v>
+          <t>MiniGrid-SimpleCrossingS9N1-v0_a2c_None__seed1_23-10-26-08-39-21</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MiniGrid-SimpleCrossingS9N1-v0</t>
+        </is>
       </c>
       <c r="C55" t="n">
-        <v>2047.700519235545</v>
+        <v>29994</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>2229.573849600866</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9325267247634359</v>
+        <v>13</v>
       </c>
       <c r="F55" t="n">
-        <v>0.02401713785316768</v>
+        <v>0.09686468644897536</v>
       </c>
       <c r="G55" t="n">
-        <v>0.8560000061988831</v>
+        <v>0.2157517356917882</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9675999879837036</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>18.74257425742574</v>
+        <v>0.8833333253860474</v>
       </c>
       <c r="J55" t="n">
-        <v>6.671430836994615</v>
+        <v>296.970297029703</v>
       </c>
       <c r="K55" t="n">
-        <v>9</v>
+        <v>65.49574174738756</v>
       </c>
       <c r="L55" t="n">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="M55" t="n">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
